--- a/GLC-SX-MMD_VI.xlsx
+++ b/GLC-SX-MMD_VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specifications (2)\specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPECC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D6401-896D-4A8B-8FA6-5A4E9F34E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F70B51-AF08-451E-82CE-42ADCEE92E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="8550" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
   </bookViews>
   <sheets>
     <sheet name="GLC-SX-MMD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TT</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Bước sóng (nm)</t>
   </si>
   <si>
-    <t>Khoảng cách cable</t>
-  </si>
-  <si>
     <t>Loại cable</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>Phạm vi nhiệt độ hoạt động</t>
+  </si>
+  <si>
+    <t>Khoảng cách hoạt động</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>IEEE 802.3z 1000BASE-SX</t>
   </si>
 </sst>
 </file>
@@ -572,19 +578,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE69111E-E5D3-4F90-8AC6-A0A3026E4432}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -604,100 +608,109 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GLC-SX-MMD_VI.xlsx
+++ b/GLC-SX-MMD_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\SPECC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specssssss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F70B51-AF08-451E-82CE-42ADCEE92E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8BD0B-5FDB-46CE-8FF7-704991622AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
   </bookViews>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE69111E-E5D3-4F90-8AC6-A0A3026E4432}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/GLC-SX-MMD_VI.xlsx
+++ b/GLC-SX-MMD_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specssssss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specsss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8BD0B-5FDB-46CE-8FF7-704991622AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCFE1A-1962-43A9-B467-C3C29EEAD0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F3256F05-3432-4A7D-B47D-3D5B9C14E583}"/>
   </bookViews>
